--- a/biology/Zoologie/Hyla/Hyla.xlsx
+++ b/biology/Zoologie/Hyla/Hyla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyla  est un genre d'amphibiens de la famille des Hylidae[1]. Les espèces de ce genre sont appelées « rainette » en français (ce nom vernaculaire est aussi utilisé par extension pour nommer des espèces d'autres genres).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyla  est un genre d'amphibiens de la famille des Hylidae. Les espèces de ce genre sont appelées « rainette » en français (ce nom vernaculaire est aussi utilisé par extension pour nommer des espèces d'autres genres).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 35 espèces de ce genre se rencontrent en Europe, en Afrique du Nord, dans le sud de l'Asie et en Amérique du Nord[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 35 espèces de ce genre se rencontrent en Europe, en Afrique du Nord, dans le sud de l'Asie et en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (2 avril 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (2 avril 2019) :
 Hyla annectans (Jerdon, 1870)
 Hyla arborea (Linnaeus, 1758), la rainette verte ou rainette arboricole
 Hyla carthaginiensis Dufresnes, Beddek, Skorinov, Fumagalli, Perrin, Crochet, and Litvinchuk, 2019
@@ -593,7 +609,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Laurenti, 1768 : Specimen medicum, exhibens synopsin reptilium emendatam cum experimentis circa venena et antidota reptilium austriacorum Vienna Joan Thomae, p. 1-217 (texte intégral).</t>
         </is>
